--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_09_03 17_37_59.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_09_03 17_37_59.xlsx
@@ -4574,13 +4574,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057B4DBA-EDE0-41FE-8D7F-641ACA17926B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A72E5C9-D27F-4A9F-B179-CF621815D4C2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0158AA69-D15C-4196-9E27-C4F637AF98CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44DF7D45-A4A3-42DB-BD51-3BACDCFD5547}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB7481AC-03FC-4187-97F3-FAC97BC3CA11}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EFAF793-C120-46AE-AEF7-0828D7E448E4}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_09_03 17_37_59.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP JARDIM PRUDENCIA ECN 2024_09_03 17_37_59.xlsx
@@ -4574,13 +4574,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A72E5C9-D27F-4A9F-B179-CF621815D4C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5623673D-DA2C-45DD-A93F-4F629AE95948}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44DF7D45-A4A3-42DB-BD51-3BACDCFD5547}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35D9C1E0-6C76-41F4-B3D8-2809861E7A93}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EFAF793-C120-46AE-AEF7-0828D7E448E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9FCE83C-91F3-488C-96E8-E53C11E81C28}"/>
 </file>